--- a/inst/extdata/plot_dims.xlsx
+++ b/inst/extdata/plot_dims.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahilseth/Dropbox2/Dropbox/public/github_flow/inst/extdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,6 +62,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,8 +109,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -118,6 +137,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -445,278 +469,281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.04</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>B2+0.02</f>
         <v>0.06</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>B2*0.5</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.04</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C17" si="0">B3+0.02</f>
         <v>0.06</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D17" si="1">B3*0.5</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.04</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.04</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.04</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.04</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="1"/>
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" si="1"/>
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" si="1"/>
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>5.3000000000000005E-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f t="shared" si="1"/>
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>5.3000000000000005E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f t="shared" si="1"/>
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>5.3000000000000005E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f t="shared" si="1"/>
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>5.3000000000000005E-2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f t="shared" si="1"/>
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>5.3000000000000005E-2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f t="shared" si="1"/>
         <v>1.6500000000000001E-2</v>
       </c>
@@ -724,10 +751,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>